--- a/paper/appendix-manual review.xlsx
+++ b/paper/appendix-manual review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianshen/Documents/phd/aime2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D75505-BE4F-6443-854F-6135F514AE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11952B4E-3A74-5A47-B0F3-0F22D7549DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{343DAE7A-0CFD-BA48-AF0D-68B70D75B6CE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Totals: reviewer 1 + reviewer 2</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>structured text</t>
+  </si>
+  <si>
+    <t>tabular text</t>
+  </si>
+  <si>
+    <t>free text</t>
   </si>
 </sst>
 </file>
@@ -550,18 +562,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3B4131-94BB-7D42-AF89-3AA838D47A48}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,67 +581,73 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>13</v>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
       <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2">
         <v>25</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -637,406 +655,451 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>25</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3">
+      <c r="K3" s="1"/>
+      <c r="L3">
         <v>110</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>13</v>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>11</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
       <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>14</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2">
         <v>52</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>49</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>20</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.85299999999999998</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2">
         <v>76</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2">
         <v>59</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2">
         <v>71</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2">
         <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2">
         <v>111</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>11</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2">
         <v>41</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>36</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2">
         <v>20</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>12</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <v>1590</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2">
         <v>24</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
       <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>23</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <v>7</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
       <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
       <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>4</v>
       </c>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2">
         <v>145</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
@@ -1044,63 +1107,69 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>145</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2">
         <v>64</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
       <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>59</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>0.996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2">
         <v>79</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
@@ -1108,68 +1177,77 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
       <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
       <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2">
         <v>17</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2">
         <v>26</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
@@ -1177,45 +1255,51 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2">
         <v>78</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2">
         <v>137</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
@@ -1223,115 +1307,127 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <v>137</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
         <v>27</v>
       </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
       <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>22</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2">
         <v>24</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
       <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
         <v>21</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
         <v>1700</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2">
         <v>48</v>
       </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
       <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>43</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
         <v>18</v>
       </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2">
         <v>9</v>
       </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
@@ -1339,25 +1435,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
         <v>9</v>
       </c>
-      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2">
         <v>73</v>
       </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
@@ -1365,155 +1464,173 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <v>73</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="2">
         <v>58</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>56</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>0.92300000000000004</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2">
         <v>21</v>
       </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
         <v>10</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2">
         <v>60</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2">
         <v>129</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
       <c r="E34" s="2">
         <v>0</v>
       </c>
       <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
         <v>6</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2">
         <v>61</v>
       </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
       <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
         <v>15</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2">
         <v>78</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
@@ -1521,57 +1638,66 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2">
         <v>66</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>4</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2">
         <v>25</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
       <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
       <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
     <sortCondition ref="A2:A38"/>
     <sortCondition ref="B2:B38"/>
   </sortState>
